--- a/2023/Kassenabschluss/Kassenbericht 2023.xlsx
+++ b/2023/Kassenabschluss/Kassenbericht 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2023\Kassenabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349887C-017E-4924-944D-226BD634AB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9E1EC-77CD-48D4-8D1A-09AB3BAE52CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <t>keine</t>
   </si>
   <si>
-    <t>Weihnfeier (abges.)</t>
+    <t>Weihnfeier</t>
   </si>
 </sst>
 </file>
@@ -658,16 +658,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -686,8 +688,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,11 +1074,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1119,10 +1119,10 @@
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="40"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -1163,10 +1163,10 @@
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="41">
         <v>2023</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="42"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -1207,10 +1207,10 @@
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="42"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1251,10 +1251,10 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5"/>
@@ -2899,12 +2899,12 @@
       <c r="AK42" s="12"/>
     </row>
     <row r="43" spans="1:39" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="9">
-        <v>8869.5300000000007</v>
+        <v>23.51</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>50</v>
@@ -2943,12 +2943,14 @@
       <c r="AK43" s="12"/>
     </row>
     <row r="44" spans="1:39" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="9"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2983,12 +2985,14 @@
       <c r="AK44" s="12"/>
     </row>
     <row r="45" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="10"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="10">
+        <v>28846.02</v>
+      </c>
+      <c r="E45" s="36"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3023,12 +3027,14 @@
       <c r="AK45" s="12"/>
     </row>
     <row r="46" spans="1:39" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="10">
+        <v>28353.05</v>
+      </c>
+      <c r="E46" s="37"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3099,13 +3105,13 @@
       <c r="AK47" s="12"/>
     </row>
     <row r="48" spans="1:39" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="11">
         <f>C43+C45</f>
-        <v>8869.5300000000007</v>
+        <v>28869.53</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -3143,10 +3149,10 @@
       <c r="AK48" s="12"/>
     </row>
     <row r="49" spans="1:37" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="13">
         <f>B41</f>
         <v>11124.43</v>
@@ -3187,10 +3193,10 @@
       <c r="AK49" s="12"/>
     </row>
     <row r="50" spans="1:37" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="13">
         <f>C41</f>
         <v>11640.91</v>
@@ -3233,18 +3239,18 @@
       <c r="AK50" s="12"/>
     </row>
     <row r="51" spans="1:37" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="15">
         <f>C48+C49-C50</f>
-        <v>8353.0499999999993</v>
+        <v>28353.05</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="16">
         <f>C44+C46</f>
-        <v>0</v>
+        <v>28353.05</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -4089,11 +4095,6 @@
   </sheetData>
   <sheetProtection password="D0C8" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A48:B48"/>
@@ -4103,6 +4104,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.70866141732283472" bottom="0.70866141732283472" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
